--- a/src/test/java/Excel_ApachiPOI/students.xlsx
+++ b/src/test/java/Excel_ApachiPOI/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgurtechno/IdeaProjects/ApachePOI_Example/src/test/java/Excel_ApachiPOI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3494040E-6945-2646-BA38-BA907395CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E1E7F-124B-9B43-879B-DC383B99A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -581,15 +581,21 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -948,76 +954,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>9092223344</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
-        <v>3334445566</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3">
+        <v>8777</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/java/Excel_ApachiPOI/students.xlsx
+++ b/src/test/java/Excel_ApachiPOI/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozgurtechno/IdeaProjects/ApachePOI_Example/src/test/java/Excel_ApachiPOI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E1E7F-124B-9B43-879B-DC383B99A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A98B18-8E50-684A-A799-92DA07332E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30880" yWindow="840" windowWidth="32280" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>"8777"</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,9 +593,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -658,7 +659,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -946,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,15 +957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,6 +985,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -997,13 +999,16 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3">
         <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1017,136 +1022,154 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
-        <v>8777</v>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
